--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_80.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_80.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kana Saito</t>
+          <t>Kana Kimura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
